--- a/ScoreMatrix.xlsx
+++ b/ScoreMatrix.xlsx
@@ -25,8 +25,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tvananne</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>tvananne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Some records have 0 matching values but a 3 out of 3 for relevancy. Some records match all of their search words but have a 0 for relevancy. Take those out and retrain.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Baseline</t>
   </si>
@@ -38,13 +72,25 @@
   </si>
   <si>
     <t>Solve for categories?</t>
+  </si>
+  <si>
+    <t>Remove high / low outliers</t>
+  </si>
+  <si>
+    <t>CHANGES TO MODEL &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt;&lt;&lt;   CHANGES TO DATA / CLEANSING / SUBSETS / TRAIN / ETC. </t>
+  </si>
+  <si>
+    <t>Current Lowest RMSE is in yellow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,13 +98,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,8 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,48 +430,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="41.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.51146999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5">
         <v>0.51597000000000004</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ScoreMatrix.xlsx
+++ b/ScoreMatrix.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvananne\Documents\Analytics\Kaggle\HomeDepot\homedepotgit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjvan\Documents\Kaggle\HomeDepot_early_2016\homedepotgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="5420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tvananne</author>
+    <author>Taylor Van Anne</author>
   </authors>
   <commentList>
     <comment ref="B6" authorId="0" shapeId="0">
@@ -55,12 +56,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Taylor Van Anne:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Everything else is the same, even the model. The model is not trained with the new nmatch brand field
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Baseline</t>
   </si>
@@ -84,6 +110,15 @@
   </si>
   <si>
     <t>Current Lowest RMSE is in yellow</t>
+  </si>
+  <si>
+    <t>Set brand name matches to 3 relevance</t>
+  </si>
+  <si>
+    <t>Exact same as ultimate baseline except added nmatch_brand to what trains the model</t>
+  </si>
+  <si>
+    <t>9% boost to brand matches over 0, baseline model</t>
   </si>
 </sst>
 </file>
@@ -144,13 +179,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,19 +472,19 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" customWidth="1"/>
+    <col min="5" max="6" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -454,92 +492,107 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.51146999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5">
         <v>0.51597000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0.54698999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0.54698999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -557,7 +610,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -569,7 +622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ScoreMatrix.xlsx
+++ b/ScoreMatrix.xlsx
@@ -118,7 +118,7 @@
     <t>Exact same as ultimate baseline except added nmatch_brand to what trains the model</t>
   </si>
   <si>
-    <t>9% boost to brand matches over 0, baseline model</t>
+    <t>7% boost to brand matches over 0, baseline model</t>
   </si>
 </sst>
 </file>
@@ -183,11 +183,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,7 +472,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,7 +493,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1"/>
@@ -505,7 +505,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +514,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -523,13 +523,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -538,8 +538,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8">
@@ -547,52 +547,52 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ScoreMatrix.xlsx
+++ b/ScoreMatrix.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjvan\Documents\Kaggle\HomeDepot_early_2016\homedepotgit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="5420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="5415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +27,7 @@
     <author>Taylor Van Anne</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="1" shapeId="0">
+    <comment ref="B7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -86,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Baseline</t>
   </si>
@@ -119,13 +114,16 @@
   </si>
   <si>
     <t>7% boost to brand matches over 0, baseline model</t>
+  </si>
+  <si>
+    <t>Baseline glm with added bullet count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -189,6 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,30 +460,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" customWidth="1"/>
-    <col min="2" max="2" width="41.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
-    <col min="4" max="4" width="22.26953125" customWidth="1"/>
-    <col min="5" max="6" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -492,7 +491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -504,16 +503,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>0.51146999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -522,13 +521,13 @@
         <v>0.51597000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -537,7 +536,7 @@
         <v>0.54698999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="45">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -546,52 +545,58 @@
         <v>0.54698999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.51053000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
@@ -605,24 +610,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ScoreMatrix.xlsx
+++ b/ScoreMatrix.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjvan\Documents\Kaggle\HomeDepot_early_2016\homedepotgit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="5420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
     <author>Taylor Van Anne</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="1">
+    <comment ref="B7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Baseline</t>
   </si>
@@ -117,13 +122,22 @@
   </si>
   <si>
     <t>Baseline glm with added bullet count</t>
+  </si>
+  <si>
+    <t>baseline glm fuzzy match percents (normalized)</t>
+  </si>
+  <si>
+    <t>Baseline glm fuzzy match (raw)</t>
+  </si>
+  <si>
+    <t>add bullets to this and we're cooking with gas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,10 +198,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,30 +474,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" customWidth="1"/>
+    <col min="5" max="6" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -491,8 +505,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1"/>
@@ -503,17 +517,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.51146999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -521,14 +535,14 @@
         <v>0.51597000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -536,8 +550,8 @@
         <v>0.54698999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -545,59 +559,74 @@
         <v>0.54698999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>0.51053000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.50163999999999997</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.50014000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -610,24 +639,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
